--- a/Aurioles Maldonado Luis Gustavo 20212.xlsx
+++ b/Aurioles Maldonado Luis Gustavo 20212.xlsx
@@ -8045,7 +8045,7 @@
         <v>897</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -8109,7 +8109,7 @@
         <v>898</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -8342,7 +8342,7 @@
         <v>826</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Aurioles Maldonado Luis Gustavo 20212.xlsx
+++ b/Aurioles Maldonado Luis Gustavo 20212.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="1129">
   <si>
     <t>NC</t>
   </si>
@@ -2144,6 +2144,9 @@
     <t>2721972586</t>
   </si>
   <si>
+    <t>CADEZA</t>
+  </si>
+  <si>
     <t>CONDADO</t>
   </si>
   <si>
@@ -2180,6 +2183,9 @@
     <t>TEZOCO</t>
   </si>
   <si>
+    <t>GALLARDO</t>
+  </si>
+  <si>
     <t>GARATE</t>
   </si>
   <si>
@@ -2216,6 +2222,9 @@
     <t>JOSE ANTONIO</t>
   </si>
   <si>
+    <t>IRVING OTTONIEL</t>
+  </si>
+  <si>
     <t>BRAYAN</t>
   </si>
   <si>
@@ -2294,6 +2303,9 @@
     <t>tezocoaguilar06@gmail.com</t>
   </si>
   <si>
+    <t>irving12gallardo@gmail.com</t>
+  </si>
+  <si>
     <t>bcastillorojas981@gmail.com</t>
   </si>
   <si>
@@ -2384,6 +2396,9 @@
     <t>2727843486</t>
   </si>
   <si>
+    <t>2721796968</t>
+  </si>
+  <si>
     <t>5565129100</t>
   </si>
   <si>
@@ -2507,6 +2522,9 @@
     <t>ANTONIO AGUILAR TEXOCO</t>
   </si>
   <si>
+    <t>WENDY ELIZABETH GALLARDO SANDRIA</t>
+  </si>
+  <si>
     <t>JOSÉ EBER CASTILLO MARÍN</t>
   </si>
   <si>
@@ -2594,6 +2612,9 @@
     <t>antonioaguilar0826@gmail.com</t>
   </si>
   <si>
+    <t>wendy27gallardo@gmail.com</t>
+  </si>
+  <si>
     <t>nikolasr848@gmail.com</t>
   </si>
   <si>
@@ -2658,6 +2679,9 @@
   </si>
   <si>
     <t>2721830619</t>
+  </si>
+  <si>
+    <t>2721721543</t>
   </si>
   <si>
     <t>2723563922</t>
@@ -7290,7 +7314,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7351,25 +7375,25 @@
         <v>268</v>
       </c>
       <c r="D2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E2" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="F2" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="G2" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="H2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="I2" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="J2" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -7383,28 +7407,28 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D3" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E3" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="F3" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="G3" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="H3" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="I3" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="J3" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -7412,69 +7436,63 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>19330051920090</v>
+        <v>19330051920088</v>
       </c>
       <c r="B4" t="s">
-        <v>492</v>
+        <v>708</v>
       </c>
       <c r="C4" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="D4" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E4" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F4" t="s">
-        <v>788</v>
-      </c>
-      <c r="G4" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="H4" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="I4" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="J4" t="s">
-        <v>880</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
+        <v>887</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>19330051920089</v>
+        <v>19330051920090</v>
       </c>
       <c r="B5" t="s">
         <v>492</v>
       </c>
       <c r="C5" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D5" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E5" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F5" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="G5" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="H5" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="I5" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="J5" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -7482,34 +7500,34 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>19330051920092</v>
+        <v>19330051920089</v>
       </c>
       <c r="B6" t="s">
-        <v>298</v>
+        <v>492</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>714</v>
       </c>
       <c r="D6" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E6" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F6" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="G6" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="H6" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="I6" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="J6" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -7517,325 +7535,325 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>19330051920093</v>
+        <v>19330051920092</v>
       </c>
       <c r="B7" t="s">
-        <v>708</v>
+        <v>298</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="E7" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="F7" t="s">
-        <v>791</v>
+        <v>795</v>
+      </c>
+      <c r="G7" t="s">
+        <v>795</v>
       </c>
       <c r="H7" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="I7" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="J7" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>19330051920094</v>
+        <v>19330051920093</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>709</v>
       </c>
       <c r="C8" t="s">
-        <v>720</v>
+        <v>253</v>
       </c>
       <c r="D8" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E8" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="F8" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="H8" t="s">
-        <v>832</v>
+        <v>837</v>
+      </c>
+      <c r="I8" t="s">
+        <v>868</v>
       </c>
       <c r="J8" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>19330051920095</v>
+        <v>19330051920094</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>253</v>
+        <v>722</v>
       </c>
       <c r="D9" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E9" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="F9" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="H9" t="s">
-        <v>833</v>
-      </c>
-      <c r="I9" t="s">
-        <v>862</v>
+        <v>838</v>
       </c>
       <c r="J9" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>19330051920097</v>
+        <v>19330051920095</v>
       </c>
       <c r="B10" t="s">
-        <v>709</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E10" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="F10" t="s">
-        <v>794</v>
-      </c>
-      <c r="G10" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="H10" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="I10" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="J10" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>19330051920098</v>
+        <v>19330051920097</v>
       </c>
       <c r="B11" t="s">
-        <v>487</v>
+        <v>710</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>244</v>
       </c>
       <c r="D11" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E11" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="F11" t="s">
-        <v>795</v>
+        <v>799</v>
+      </c>
+      <c r="G11" t="s">
+        <v>821</v>
       </c>
       <c r="H11" t="s">
-        <v>835</v>
+        <v>840</v>
+      </c>
+      <c r="I11" t="s">
+        <v>870</v>
       </c>
       <c r="J11" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>19330051920099</v>
+        <v>19330051920098</v>
       </c>
       <c r="B12" t="s">
         <v>487</v>
       </c>
       <c r="C12" t="s">
-        <v>721</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E12" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="F12" t="s">
-        <v>796</v>
-      </c>
-      <c r="G12" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="H12" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="J12" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>19330051920100</v>
+        <v>19330051920099</v>
       </c>
       <c r="B13" t="s">
         <v>487</v>
       </c>
       <c r="C13" t="s">
-        <v>261</v>
+        <v>723</v>
       </c>
       <c r="D13" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E13" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="F13" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G13" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="H13" t="s">
-        <v>837</v>
-      </c>
-      <c r="I13" t="s">
-        <v>864</v>
+        <v>842</v>
       </c>
       <c r="J13" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>19330051920101</v>
+        <v>19330051920100</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>487</v>
       </c>
       <c r="C14" t="s">
-        <v>722</v>
+        <v>261</v>
       </c>
       <c r="D14" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E14" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F14" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="G14" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="H14" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="I14" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="J14" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>19330051920102</v>
+        <v>19330051920101</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>724</v>
       </c>
       <c r="D15" t="s">
-        <v>280</v>
+        <v>745</v>
       </c>
       <c r="E15" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="F15" t="s">
-        <v>799</v>
+        <v>803</v>
+      </c>
+      <c r="G15" t="s">
+        <v>823</v>
       </c>
       <c r="H15" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="I15" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="J15" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>19330051920105</v>
+        <v>19330051920102</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>723</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>743</v>
+        <v>280</v>
       </c>
       <c r="E16" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F16" t="s">
-        <v>800</v>
-      </c>
-      <c r="G16" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="H16" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="I16" t="s">
-        <v>770</v>
+        <v>873</v>
       </c>
       <c r="J16" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -7843,69 +7861,69 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>19330051920103</v>
+        <v>19330051920105</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="C17" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D17" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E17" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="F17" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="G17" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="H17" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="I17" t="s">
-        <v>867</v>
+        <v>774</v>
       </c>
       <c r="J17" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>19330051920106</v>
+        <v>19330051920103</v>
       </c>
       <c r="B18" t="s">
-        <v>710</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D18" t="s">
-        <v>503</v>
+        <v>747</v>
       </c>
       <c r="E18" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="F18" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="G18" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="H18" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="I18" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="J18" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -7913,66 +7931,69 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>19330051920107</v>
+        <v>19330051920106</v>
       </c>
       <c r="B19" t="s">
         <v>711</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>727</v>
       </c>
       <c r="D19" t="s">
-        <v>745</v>
+        <v>503</v>
       </c>
       <c r="E19" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="F19" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="G19" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="H19" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="I19" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="J19" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>19330051920109</v>
+        <v>19330051920107</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>712</v>
       </c>
       <c r="C20" t="s">
-        <v>487</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E20" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="F20" t="s">
-        <v>804</v>
+        <v>808</v>
+      </c>
+      <c r="G20" t="s">
+        <v>826</v>
       </c>
       <c r="H20" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="I20" t="s">
-        <v>774</v>
+        <v>876</v>
       </c>
       <c r="J20" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -7980,34 +8001,31 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>19330051920110</v>
+        <v>19330051920109</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>487</v>
       </c>
       <c r="D21" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E21" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="F21" t="s">
-        <v>805</v>
-      </c>
-      <c r="G21" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="H21" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="I21" t="s">
-        <v>870</v>
+        <v>778</v>
       </c>
       <c r="J21" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -8015,66 +8033,69 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>19330051920112</v>
+        <v>19330051920110</v>
       </c>
       <c r="B22" t="s">
-        <v>253</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="E22" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="F22" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="G22" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="H22" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="I22" t="s">
-        <v>776</v>
+        <v>877</v>
       </c>
       <c r="J22" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>19330051920001</v>
+        <v>19330051920112</v>
       </c>
       <c r="B23" t="s">
-        <v>493</v>
+        <v>253</v>
       </c>
       <c r="C23" t="s">
-        <v>726</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E23" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="F23" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="G23" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="H23" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="I23" t="s">
-        <v>871</v>
+        <v>780</v>
+      </c>
+      <c r="J23" t="s">
+        <v>905</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -8082,31 +8103,31 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>19330051920115</v>
+        <v>19330051920001</v>
       </c>
       <c r="B24" t="s">
-        <v>712</v>
+        <v>493</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>728</v>
       </c>
       <c r="D24" t="s">
-        <v>731</v>
+        <v>752</v>
       </c>
       <c r="E24" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F24" t="s">
-        <v>808</v>
+        <v>812</v>
+      </c>
+      <c r="G24" t="s">
+        <v>827</v>
       </c>
       <c r="H24" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="I24" t="s">
-        <v>872</v>
-      </c>
-      <c r="J24" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -8114,136 +8135,133 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>19330051920116</v>
+        <v>19330051920115</v>
       </c>
       <c r="B25" t="s">
         <v>713</v>
       </c>
       <c r="C25" t="s">
-        <v>727</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E25" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="F25" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="H25" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="I25" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="J25" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>19330051920117</v>
+        <v>19330051920116</v>
       </c>
       <c r="B26" t="s">
         <v>714</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>729</v>
       </c>
       <c r="D26" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="E26" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="F26" t="s">
-        <v>810</v>
-      </c>
-      <c r="G26" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="H26" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="I26" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="J26" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>19330051920118</v>
+        <v>19330051920117</v>
       </c>
       <c r="B27" t="s">
         <v>715</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E27" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="F27" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="G27" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="H27" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="I27" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="J27" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>19330051920119</v>
+        <v>19330051920118</v>
       </c>
       <c r="B28" t="s">
         <v>716</v>
       </c>
       <c r="C28" t="s">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E28" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="F28" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="G28" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="H28" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="I28" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="J28" t="s">
-        <v>812</v>
+        <v>909</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -8251,28 +8269,34 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>19330051920120</v>
+        <v>19330051920119</v>
       </c>
       <c r="B29" t="s">
         <v>717</v>
       </c>
       <c r="C29" t="s">
-        <v>728</v>
+        <v>251</v>
       </c>
       <c r="D29" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E29" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="F29" t="s">
-        <v>813</v>
+        <v>817</v>
+      </c>
+      <c r="G29" t="s">
+        <v>817</v>
       </c>
       <c r="H29" t="s">
-        <v>853</v>
+        <v>858</v>
+      </c>
+      <c r="I29" t="s">
+        <v>883</v>
       </c>
       <c r="J29" t="s">
-        <v>902</v>
+        <v>817</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -8280,68 +8304,97 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>19330051920121</v>
+        <v>19330051920120</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>718</v>
       </c>
       <c r="C30" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D30" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E30" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="F30" t="s">
-        <v>814</v>
-      </c>
-      <c r="G30" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="H30" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="J30" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
+        <v>19330051920121</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>731</v>
+      </c>
+      <c r="D31" t="s">
+        <v>757</v>
+      </c>
+      <c r="E31" t="s">
+        <v>788</v>
+      </c>
+      <c r="F31" t="s">
+        <v>819</v>
+      </c>
+      <c r="G31" t="s">
+        <v>830</v>
+      </c>
+      <c r="H31" t="s">
+        <v>860</v>
+      </c>
+      <c r="J31" t="s">
+        <v>911</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
         <v>19330051920122</v>
       </c>
-      <c r="B31" t="s">
-        <v>718</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
+        <v>719</v>
+      </c>
+      <c r="C32" t="s">
         <v>484</v>
       </c>
-      <c r="D31" t="s">
-        <v>755</v>
-      </c>
-      <c r="E31" t="s">
-        <v>785</v>
-      </c>
-      <c r="F31" t="s">
-        <v>815</v>
-      </c>
-      <c r="G31" t="s">
-        <v>826</v>
-      </c>
-      <c r="H31" t="s">
-        <v>855</v>
-      </c>
-      <c r="I31" t="s">
-        <v>877</v>
-      </c>
-      <c r="J31" t="s">
-        <v>826</v>
-      </c>
-      <c r="K31">
+      <c r="D32" t="s">
+        <v>758</v>
+      </c>
+      <c r="E32" t="s">
+        <v>789</v>
+      </c>
+      <c r="F32" t="s">
+        <v>820</v>
+      </c>
+      <c r="G32" t="s">
+        <v>831</v>
+      </c>
+      <c r="H32" t="s">
+        <v>861</v>
+      </c>
+      <c r="I32" t="s">
+        <v>884</v>
+      </c>
+      <c r="J32" t="s">
+        <v>831</v>
+      </c>
+      <c r="K32">
         <v>2</v>
       </c>
     </row>
@@ -8410,28 +8463,28 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="D2" t="s">
         <v>310</v>
       </c>
       <c r="E2" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="F2" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="G2" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="H2" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="I2" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="J2" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -8442,28 +8495,28 @@
         <v>20330051920040</v>
       </c>
       <c r="B3" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="C3" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="D3" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="E3" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="F3" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="G3" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="H3" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="J3" t="s">
-        <v>1095</v>
+        <v>1103</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -8474,28 +8527,28 @@
         <v>20330051920042</v>
       </c>
       <c r="B4" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="E4" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="F4" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="H4" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="I4" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="J4" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -8509,28 +8562,28 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="D5" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="E5" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="F5" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="G5" t="s">
-        <v>1023</v>
+        <v>1031</v>
       </c>
       <c r="H5" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="I5" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="J5" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -8541,31 +8594,31 @@
         <v>20330051920044</v>
       </c>
       <c r="B6" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="C6" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="D6" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="E6" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="F6" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="H6" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="I6" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="J6" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -8576,31 +8629,31 @@
         <v>20330051920045</v>
       </c>
       <c r="B7" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="C7" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="D7" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="E7" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="F7" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="G7" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="H7" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="I7" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="J7" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -8611,7 +8664,7 @@
         <v>20330051920046</v>
       </c>
       <c r="B8" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="C8" t="s">
         <v>477</v>
@@ -8620,22 +8673,22 @@
         <v>506</v>
       </c>
       <c r="E8" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="F8" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="G8" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="H8" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
       <c r="I8" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="J8" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -8646,31 +8699,31 @@
         <v>20330051920048</v>
       </c>
       <c r="B9" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="E9" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="F9" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="G9" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="H9" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="I9" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="J9" t="s">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -8690,19 +8743,19 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="F10" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="H10" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
       <c r="I10" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
       <c r="J10" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -8716,28 +8769,28 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="D11" t="s">
         <v>506</v>
       </c>
       <c r="E11" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="F11" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="G11" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="H11" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="I11" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="J11" t="s">
-        <v>1102</v>
+        <v>1110</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -8748,28 +8801,28 @@
         <v>20330051920365</v>
       </c>
       <c r="B12" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C12" t="s">
         <v>476</v>
       </c>
       <c r="D12" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="E12" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
       <c r="F12" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="H12" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="I12" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
       <c r="J12" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -8786,22 +8839,22 @@
         <v>474</v>
       </c>
       <c r="D13" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="E13" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
       <c r="F13" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="H13" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="I13" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
       <c r="J13" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -8818,25 +8871,25 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="E14" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
       <c r="F14" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="G14" t="s">
-        <v>1023</v>
+        <v>1031</v>
       </c>
       <c r="H14" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
       <c r="I14" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="J14" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -8853,25 +8906,25 @@
         <v>487</v>
       </c>
       <c r="D15" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
       <c r="E15" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="F15" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="G15" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="H15" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="I15" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="J15" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -8882,7 +8935,7 @@
         <v>20330051920056</v>
       </c>
       <c r="B16" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="C16" t="s">
         <v>250</v>
@@ -8891,22 +8944,22 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="F16" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="G16" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="H16" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
       <c r="I16" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="J16" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -8920,28 +8973,28 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="D17" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="E17" t="s">
-        <v>970</v>
+        <v>978</v>
       </c>
       <c r="F17" t="s">
-        <v>1003</v>
+        <v>1011</v>
       </c>
       <c r="G17" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="H17" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="I17" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="J17" t="s">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -8952,25 +9005,25 @@
         <v>20330051920095</v>
       </c>
       <c r="B18" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="C18" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="D18" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="E18" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="F18" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="H18" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
       <c r="J18" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -8987,25 +9040,25 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="E19" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
       <c r="F19" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="G19" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="H19" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
       <c r="I19" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="J19" t="s">
-        <v>1110</v>
+        <v>1118</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -9019,28 +9072,28 @@
         <v>251</v>
       </c>
       <c r="C20" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="D20" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="E20" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="F20" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="G20" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="H20" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
       <c r="I20" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="J20" t="s">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -9051,28 +9104,28 @@
         <v>20330051920099</v>
       </c>
       <c r="B21" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="D21" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="E21" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
       <c r="F21" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="G21" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="H21" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="I21" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="J21" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -9083,28 +9136,28 @@
         <v>20330051920366</v>
       </c>
       <c r="B22" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="E22" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="F22" t="s">
-        <v>1008</v>
+        <v>1016</v>
       </c>
       <c r="H22" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
       <c r="I22" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="J22" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -9115,31 +9168,31 @@
         <v>20330051920367</v>
       </c>
       <c r="B23" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="E23" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
       <c r="F23" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
       <c r="G23" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
       <c r="H23" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="I23" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="J23" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -9150,31 +9203,31 @@
         <v>20330051920100</v>
       </c>
       <c r="B24" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="C24" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="D24" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="E24" t="s">
-        <v>977</v>
+        <v>985</v>
       </c>
       <c r="F24" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="G24" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="H24" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="I24" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="J24" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -9185,31 +9238,31 @@
         <v>20330051920101</v>
       </c>
       <c r="B25" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="C25" t="s">
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="E25" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
       <c r="F25" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="G25" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="H25" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="I25" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
       <c r="J25" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -9220,7 +9273,7 @@
         <v>20330051920102</v>
       </c>
       <c r="B26" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="C26" t="s">
         <v>260</v>
@@ -9229,19 +9282,19 @@
         <v>283</v>
       </c>
       <c r="E26" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="F26" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="G26" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="H26" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
       <c r="I26" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -9255,28 +9308,28 @@
         <v>470</v>
       </c>
       <c r="C27" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="D27" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="E27" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
       <c r="F27" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="G27" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="H27" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="I27" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="J27" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -9293,22 +9346,22 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="E28" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="F28" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="G28" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="H28" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
       <c r="J28" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -9325,25 +9378,25 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="E29" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="F29" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="G29" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="H29" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="I29" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="J29" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -9360,22 +9413,22 @@
         <v>261</v>
       </c>
       <c r="D30" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="E30" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="F30" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="G30" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="H30" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
       <c r="J30" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -9386,28 +9439,28 @@
         <v>20330051920109</v>
       </c>
       <c r="B31" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="C31" t="s">
         <v>477</v>
       </c>
       <c r="D31" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="E31" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="F31" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="H31" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="I31" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="J31" t="s">
-        <v>1117</v>
+        <v>1125</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -9418,28 +9471,28 @@
         <v>20330051920111</v>
       </c>
       <c r="B32" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="C32" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="D32" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="E32" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
       <c r="F32" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="H32" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="I32" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="J32" t="s">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -9456,25 +9509,25 @@
         <v>257</v>
       </c>
       <c r="D33" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="E33" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="F33" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
       <c r="G33" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
       <c r="H33" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="I33" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="J33" t="s">
-        <v>1119</v>
+        <v>1127</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -9494,22 +9547,22 @@
         <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="F34" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="G34" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="H34" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="I34" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="J34" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="K34">
         <v>1</v>

--- a/Aurioles Maldonado Luis Gustavo 20212.xlsx
+++ b/Aurioles Maldonado Luis Gustavo 20212.xlsx
@@ -4377,7 +4377,7 @@
         <v>232</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -7462,6 +7462,9 @@
       <c r="J4" t="s">
         <v>887</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
@@ -7856,7 +7859,7 @@
         <v>898</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11">
